--- a/aviation/data/rpkData.xlsx
+++ b/aviation/data/rpkData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinsun/git/internet/aviation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706F3494-ADDF-DA49-9F9A-7789A28B22A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5AD75C-5F58-8B45-8D51-77107AF779E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="460" windowWidth="17160" windowHeight="16540" xr2:uid="{DEAE315D-FAAF-2943-9910-F2099830CFB8}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Europe</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>Total Online Internet Hours (Millions)</t>
+  </si>
+  <si>
+    <t>Weigthed CAGR</t>
+  </si>
+  <si>
+    <t>Global CAGR:</t>
   </si>
 </sst>
 </file>
@@ -192,7 +198,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -213,6 +219,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -529,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB3289A-955D-2644-87B2-3DBBACB9F905}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -540,14 +547,14 @@
     <col min="1" max="1" width="54" style="5" customWidth="1"/>
     <col min="2" max="2" width="36.83203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="31.1640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="16" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="27.5" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="5"/>
+    <col min="4" max="5" width="16" style="5" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="27.5" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -556,7 +563,7 @@
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -564,30 +571,37 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="5">
         <v>903</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="5">
         <f>0.013/100</f>
         <v>1.2999999999999999E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="11">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="E4" s="6">
+        <f>SUM(E7:E11)</f>
+        <v>7.9412412412412398E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -601,16 +615,19 @@
         <v>5</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
@@ -624,16 +641,20 @@
       <c r="D7" s="8">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
+        <f>C7*D7/SUM($C$7:$C$11)</f>
+        <v>1.8954954954954955E-2</v>
+      </c>
+      <c r="F7" s="5">
         <f>C7/$B$3</f>
         <v>0.19222591362126248</v>
       </c>
-      <c r="F7" s="5">
-        <f>E7*$B$4</f>
+      <c r="G7" s="5">
+        <f>F7*$B$4</f>
         <v>0.14801395348837212</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
@@ -649,16 +670,20 @@
         <f>7.5%+3.9%</f>
         <v>0.11399999999999999</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="6">
+        <f t="shared" ref="E8:E11" si="0">C8*D8/SUM($C$7:$C$11)</f>
+        <v>1.2894894894894893E-2</v>
+      </c>
+      <c r="F8" s="5">
         <f>C8/$B$3</f>
         <v>8.2591362126245849E-2</v>
       </c>
-      <c r="F8" s="5">
-        <f>E8*$B$4</f>
+      <c r="G8" s="5">
+        <f>F8*$B$4</f>
         <v>6.3595348837209312E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -666,22 +691,26 @@
         <v>0.34799999999999998</v>
       </c>
       <c r="C9" s="10">
-        <f t="shared" ref="C9:C11" si="0">B9*$B$1/$B$2</f>
+        <f t="shared" ref="C9:C11" si="1">B9*$B$1/$B$2</f>
         <v>229.67999999999998</v>
       </c>
       <c r="D9" s="6">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="E9" s="5">
-        <f t="shared" ref="E9:E11" si="1">C9/$B$3</f>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>3.3093093093093086E-2</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" ref="F9:F11" si="2">C9/$B$3</f>
         <v>0.25435215946843853</v>
       </c>
-      <c r="F9" s="5">
-        <f>E9*$B$4</f>
+      <c r="G9" s="5">
+        <f>F9*$B$4</f>
         <v>0.19585116279069767</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
@@ -689,22 +718,26 @@
         <v>0.224</v>
       </c>
       <c r="C10" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>147.84</v>
       </c>
       <c r="D10" s="6">
         <v>4.7E-2</v>
       </c>
-      <c r="E10" s="5">
-        <f t="shared" si="1"/>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0538538538538538E-2</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="2"/>
         <v>0.16372093023255815</v>
       </c>
-      <c r="F10" s="5">
-        <f>E10*$B$4</f>
+      <c r="G10" s="5">
+        <f>F10*$B$4</f>
         <v>0.12606511627906977</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
@@ -712,24 +745,35 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="C11" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33.659999999999997</v>
       </c>
       <c r="D11" s="6">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="E11" s="5">
-        <f t="shared" si="1"/>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>3.9309309309309304E-3</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="2"/>
         <v>3.7275747508305646E-2</v>
       </c>
-      <c r="F11" s="5">
-        <f t="shared" ref="F11" si="2">E11*$B$4</f>
+      <c r="G11" s="5">
+        <f t="shared" ref="G11" si="3">F11*$B$4</f>
         <v>2.8702325581395349E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="C15" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
